--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="19410" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="mmv" sheetId="3" r:id="rId3"/>
-    <sheet name="loan" sheetId="4" r:id="rId4"/>
+    <sheet name="loanStock" sheetId="4" r:id="rId4"/>
+    <sheet name="multiQuoteData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>testdata</t>
   </si>
@@ -59,6 +60,225 @@
   </si>
   <si>
     <t>java</t>
+  </si>
+  <si>
+    <t>car_id</t>
+  </si>
+  <si>
+    <t>dealer_id</t>
+  </si>
+  <si>
+    <t>make_month</t>
+  </si>
+  <si>
+    <t>make_year</t>
+  </si>
+  <si>
+    <t>version_id</t>
+  </si>
+  <si>
+    <t>reg_no</t>
+  </si>
+  <si>
+    <t>reg_month</t>
+  </si>
+  <si>
+    <t>reg_year</t>
+  </si>
+  <si>
+    <t>km_driven</t>
+  </si>
+  <si>
+    <t>uc_colour</t>
+  </si>
+  <si>
+    <t>car_price</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>car_body_type</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>make_id</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>modelVersion</t>
+  </si>
+  <si>
+    <t>HR51AL456</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Mpv</t>
+  </si>
+  <si>
+    <t>Avanza</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Avanza 1.3G MT</t>
+  </si>
+  <si>
+    <t>GHHHHH</t>
+  </si>
+  <si>
+    <t>Metallic Dark Blue</t>
+  </si>
+  <si>
+    <t>Cvt</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t>HRV (2015-2018)</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>HRV (2015-2018) EX CVT 2WD</t>
+  </si>
+  <si>
+    <t>WHDBJFJF6</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>XE R-Sport</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>XE R-Sport 2.0 LITRE i4 180PS TURBOCHARGED DIESEL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>XJ Premium Luxury SWB</t>
+  </si>
+  <si>
+    <t>XJ Premium Luxury SWB 5.0 LITRE V8 385 PETROL</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>A3 (2012-2016)</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>A3 (2012-2016) S3 S-tronic</t>
+  </si>
+  <si>
+    <t>B63588356</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
+  </si>
+  <si>
+    <t>Picanto</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>Picanto Standar 1.1L MT</t>
+  </si>
+  <si>
+    <t>FGG</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Avanza (2003-2011)</t>
+  </si>
+  <si>
+    <t>Avanza (2003-2011) 1.3 E MT</t>
+  </si>
+  <si>
+    <t>GHHHH</t>
+  </si>
+  <si>
+    <t>Avanza 1.3E MT</t>
+  </si>
+  <si>
+    <t>DFFGG</t>
+  </si>
+  <si>
+    <t>Ayla</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>Ayla 1.0L D MT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Agya (2013-2018)</t>
+  </si>
+  <si>
+    <t>Agya (2013-2018) E A/T</t>
+  </si>
+  <si>
+    <t>carprice</t>
+  </si>
+  <si>
+    <t>dealer_price</t>
+  </si>
+  <si>
+    <t>customer_age</t>
   </si>
 </sst>
 </file>
@@ -66,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,30 +316,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,10 +337,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,9 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,14 +400,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +416,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +659,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +734,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -498,180 +751,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1016,13 +1236,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="25.9" style="1" customWidth="true"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.9" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1082,7 +1302,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1132,14 +1352,703 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>504586.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3200.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0E8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>470424.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1463.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20050.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0E7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>504260.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.5662959E7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>504294.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.4689877E7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>504316.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="n">
+        <v>67777.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.0E8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>504469.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4299.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.25000001E8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>504585.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3059.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.6E8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1655.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>504584.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3361.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.6E8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>504575.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2568.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6E7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1731.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>504583.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.17E8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.5" collapsed="false"/>
+    <col min="2" max="2" width="10.3" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="91">
   <si>
     <t>testdata</t>
   </si>
@@ -62,6 +62,9 @@
     <t>java</t>
   </si>
   <si>
+    <t>carTest</t>
+  </si>
+  <si>
     <t>car_id</t>
   </si>
   <si>
@@ -119,15 +122,51 @@
     <t>modelVersion</t>
   </si>
   <si>
+    <t>AGHHH</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
+  </si>
+  <si>
+    <t>Gran Max PU</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>Gran Max PU 1.3 Standar MT AC</t>
+  </si>
+  <si>
+    <t>FTTG</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Minivans</t>
+  </si>
+  <si>
+    <t>Espass</t>
+  </si>
+  <si>
+    <t>Espass 1.3 MT BX</t>
+  </si>
+  <si>
     <t>HR51AL456</t>
   </si>
   <si>
     <t>Green</t>
   </si>
   <si>
-    <t>Petrol</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
@@ -200,9 +239,6 @@
     <t>XJ Premium Luxury SWB 5.0 LITRE V8 385 PETROL</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>A3 (2012-2016)</t>
   </si>
   <si>
@@ -218,12 +254,6 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Hatchback</t>
-  </si>
-  <si>
     <t>Picanto</t>
   </si>
   <si>
@@ -251,27 +281,6 @@
     <t>Avanza 1.3E MT</t>
   </si>
   <si>
-    <t>DFFGG</t>
-  </si>
-  <si>
-    <t>Ayla</t>
-  </si>
-  <si>
-    <t>Daihatsu</t>
-  </si>
-  <si>
-    <t>Ayla 1.0L D MT</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Agya (2013-2018)</t>
-  </si>
-  <si>
-    <t>Agya (2013-2018) E A/T</t>
-  </si>
-  <si>
     <t>carprice</t>
   </si>
   <si>
@@ -279,6 +288,9 @@
   </si>
   <si>
     <t>customer_age</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -322,6 +334,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -337,52 +427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -390,17 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,30 +457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,13 +472,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,31 +562,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,103 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,69 +663,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -735,8 +684,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,147 +730,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1352,10 +1364,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1365,122 +1377,71 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>504586.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2350.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3200.0</v>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.0E8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1654.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>470424.0</v>
+        <v>504588.0</v>
       </c>
       <c r="B3" t="n">
         <v>2350.0</v>
@@ -1489,57 +1450,57 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2002.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1463.0</v>
+        <v>5773.0</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2008.0</v>
+        <v>2013.0</v>
       </c>
       <c r="I3" t="n">
-        <v>20050.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0E7</v>
+        <v>6.5E7</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P3" t="n">
-        <v>100.0</v>
+        <v>69.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>504260.0</v>
+        <v>504587.0</v>
       </c>
       <c r="B4" t="n">
         <v>2350.0</v>
@@ -1548,57 +1509,57 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2018.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E4" t="n">
-        <v>287.0</v>
+        <v>6735.0</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2018.0</v>
+        <v>2005.0</v>
       </c>
       <c r="I4" t="n">
-        <v>6000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>8.5662959E7</v>
+        <v>1.95E9</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P4" t="n">
-        <v>114.0</v>
+        <v>1688.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>504294.0</v>
+        <v>504586.0</v>
       </c>
       <c r="B5" t="n">
         <v>2350.0</v>
@@ -1607,110 +1568,116 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2021.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E5" t="n">
-        <v>307.0</v>
+        <v>3200.0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>2014.0</v>
       </c>
       <c r="I5" t="n">
-        <v>2345.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4689877E7</v>
+        <v>1.0E8</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>504316.0</v>
+        <v>470424.0</v>
       </c>
       <c r="B6" t="n">
         <v>2350.0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2020.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+        <v>1463.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2008.0</v>
+      </c>
       <c r="I6" t="n">
-        <v>67777.0</v>
+        <v>20050.0</v>
       </c>
       <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0E7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
         <v>60</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.0E8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>504469.0</v>
+        <v>504260.0</v>
       </c>
       <c r="B7" t="n">
         <v>2350.0</v>
@@ -1719,57 +1686,57 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2006.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4299.0</v>
+        <v>287.0</v>
       </c>
       <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.5662959E7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.25000001E8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>66</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>68</v>
-      </c>
-      <c r="P7" t="n">
-        <v>166.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>504585.0</v>
+        <v>504294.0</v>
       </c>
       <c r="B8" t="n">
         <v>2350.0</v>
@@ -1778,116 +1745,110 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3059.0</v>
+        <v>307.0</v>
       </c>
       <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.4689877E7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="P8" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
         <v>72</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.6E8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1655.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>504584.0</v>
+        <v>504316.0</v>
       </c>
       <c r="B9" t="n">
         <v>2350.0</v>
       </c>
       <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>67777.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.0E8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.0</v>
       </c>
-      <c r="D9" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3361.0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="Q9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" t="s">
         <v>75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.6E8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1654.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>504575.0</v>
+        <v>504469.0</v>
       </c>
       <c r="B10" t="n">
         <v>2350.0</v>
@@ -1896,46 +1857,46 @@
         <v>1.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2015.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2568.0</v>
+        <v>4299.0</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.0</v>
+        <v>2006.0</v>
       </c>
       <c r="I10" t="n">
-        <v>10000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6E7</v>
+        <v>1.25000001E8</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
         <v>78</v>
       </c>
       <c r="P10" t="n">
-        <v>1731.0</v>
+        <v>166.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="R10" t="s">
         <v>79</v>
@@ -1946,7 +1907,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>504583.0</v>
+        <v>504585.0</v>
       </c>
       <c r="B11" t="n">
         <v>2350.0</v>
@@ -1955,10 +1916,10 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E11" t="n">
-        <v>824.0</v>
+        <v>3059.0</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
@@ -1973,34 +1934,93 @@
         <v>10000.0</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K11" t="n">
-        <v>1.17E8</v>
+        <v>1.6E8</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P11" t="n">
-        <v>339.0</v>
+        <v>1655.0</v>
       </c>
       <c r="Q11" t="n">
         <v>38.0</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>504584.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3361.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.6E8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1654.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2020,13 +2040,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5" collapsed="false"/>
-    <col min="2" max="2" width="10.3" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="2" max="2" width="10.3" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1">
         <v>500000000</v>
@@ -2034,7 +2054,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>500000000</v>
@@ -2042,7 +2062,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>25</v>

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7210" uniqueCount="105">
   <si>
     <t>testdata</t>
   </si>
@@ -291,6 +291,48 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>mmv_name</t>
+  </si>
+  <si>
+    <t>reg_data</t>
+  </si>
+  <si>
+    <t>Daihatsu Gran Max PU Gran Max PU 1.3 Standar MT AC</t>
+  </si>
+  <si>
+    <t>Daihatsu Espass Espass 1.3 MT BX</t>
+  </si>
+  <si>
+    <t>Toyota Avanza Avanza 1.3G MT</t>
+  </si>
+  <si>
+    <t>Honda HRV (2015-2018) HRV (2015-2018) EX CVT 2WD</t>
+  </si>
+  <si>
+    <t>Jaguar XE R-Sport XE R-Sport 2.0 LITRE i4 180PS TURBOCHARGED DIESEL</t>
+  </si>
+  <si>
+    <t>Jaguar XJ Premium Luxury SWB XJ Premium Luxury SWB 5.0 LITRE V8 385 PETROL</t>
+  </si>
+  <si>
+    <t>Audi A3 (2012-2016) A3 (2012-2016) S3 S-tronic</t>
+  </si>
+  <si>
+    <t>KIA Picanto Picanto Standar 1.1L MT</t>
+  </si>
+  <si>
+    <t>Toyota Avanza (2003-2011) Avanza (2003-2011) 1.3 E MT</t>
+  </si>
+  <si>
+    <t>Toyota Avanza Avanza 1.3E MT</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1406,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1377,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -1438,6 +1480,12 @@
       <c r="S2" t="s">
         <v>33</v>
       </c>
+      <c r="T2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1497,6 +1545,12 @@
       <c r="S3" t="s">
         <v>41</v>
       </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2013.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1556,6 +1610,12 @@
       <c r="S4" t="s">
         <v>46</v>
       </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2005.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1615,6 +1675,12 @@
       <c r="S5" t="s">
         <v>53</v>
       </c>
+      <c r="T5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2014.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1674,6 +1740,12 @@
       <c r="S6" t="s">
         <v>60</v>
       </c>
+      <c r="T6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2008.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1733,6 +1805,12 @@
       <c r="S7" t="s">
         <v>68</v>
       </c>
+      <c r="T7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2018.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1791,6 +1869,12 @@
       </c>
       <c r="S8" t="s">
         <v>72</v>
+      </c>
+      <c r="T8" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1845,6 +1929,10 @@
       <c r="S9" t="s">
         <v>75</v>
       </c>
+      <c r="T9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1904,6 +1992,12 @@
       <c r="S10" t="s">
         <v>80</v>
       </c>
+      <c r="T10" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2006.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1963,6 +2057,12 @@
       <c r="S11" t="s">
         <v>84</v>
       </c>
+      <c r="T11" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2022.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2021,6 +2121,12 @@
       </c>
       <c r="S12" t="s">
         <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2022.0</v>
       </c>
     </row>
   </sheetData>

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9786" uniqueCount="106">
   <si>
     <t>testdata</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Toyota Avanza Avanza 1.3E MT</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9786" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10122" uniqueCount="106">
   <si>
     <t>testdata</t>
   </si>

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13594" uniqueCount="106">
   <si>
     <t>testdata</t>
   </si>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>504587.0</v>
+        <v>504586.0</v>
       </c>
       <c r="B4" t="n">
         <v>2350.0</v>
@@ -1566,63 +1566,63 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2005.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6735.0</v>
+        <v>3200.0</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2005.0</v>
+        <v>2014.0</v>
       </c>
       <c r="I4" t="n">
         <v>10000.0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95E9</v>
+        <v>1.0E8</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P4" t="n">
-        <v>1688.0</v>
+        <v>1654.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.0</v>
+        <v>38.0</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U4" t="n">
-        <v>2005.0</v>
+        <v>2014.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>504586.0</v>
+        <v>504587.0</v>
       </c>
       <c r="B5" t="n">
         <v>2350.0</v>
@@ -1631,58 +1631,58 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2014.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3200.0</v>
+        <v>6735.0</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2014.0</v>
+        <v>2005.0</v>
       </c>
       <c r="I5" t="n">
         <v>10000.0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0E8</v>
+        <v>1.95E9</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P5" t="n">
-        <v>1654.0</v>
+        <v>1688.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U5" t="n">
-        <v>2014.0</v>
+        <v>2005.0</v>
       </c>
     </row>
     <row r="6">

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13594" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14266" uniqueCount="106">
   <si>
     <t>testdata</t>
   </si>
